--- a/files/Tarefa de Stand Automóveis Simples.xlsx
+++ b/files/Tarefa de Stand Automóveis Simples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\formacaotic.pt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E28D1A3-D862-4E49-BEF8-AB0989FF8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F655785F-F6B5-40F8-887A-AB4FAE7A5DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="592" xr2:uid="{DEB85460-7168-49A0-B261-E279683B372D}"/>
   </bookViews>
@@ -475,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -541,7 +544,38 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -909,7 +943,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,22 +954,22 @@
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" customWidth="1"/>
     <col min="8" max="8" width="53.1796875" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="21" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="H2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
@@ -953,8 +987,8 @@
       <c r="F3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
@@ -975,7 +1009,10 @@
       <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="12">
+        <f>COUNTIF(E4:E22,"&lt;&gt;Serviço")</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
@@ -996,7 +1033,10 @@
       <c r="H5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12">
+        <f>COUNTIF(C4:C22,"Branco")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
@@ -1017,7 +1057,10 @@
       <c r="H6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12">
+        <f>COUNTIF(D4:D22,"&gt;15000")</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
@@ -1038,7 +1081,10 @@
       <c r="H7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="13">
+        <f>SUM(D4:D22)</f>
+        <v>291775</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
@@ -1059,7 +1105,10 @@
       <c r="H8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="13">
+        <f>MAX(D4:D22)</f>
+        <v>31000</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
@@ -1080,7 +1129,10 @@
       <c r="H9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="13">
+        <f>MIN(D4:D22)</f>
+        <v>3750</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
@@ -1101,7 +1153,10 @@
       <c r="H10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="13">
+        <f>AVERAGE(D4:D22)</f>
+        <v>15356.578947368422</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
@@ -1122,7 +1177,10 @@
       <c r="H11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12">
+        <f>COUNTIF(F4:F22,"Elétrico")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
@@ -1143,7 +1201,10 @@
       <c r="H12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <f>AVERAGEIF(D4:D22,"&gt;10000")</f>
+        <v>17439</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
@@ -1161,10 +1222,13 @@
       <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20" t="str">
+        <f>IF(SUM(D4:D22)&gt;150000,"Boa Campanha","Fraca Campanha")</f>
+        <v>Boa Campanha</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
@@ -1182,8 +1246,8 @@
       <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
@@ -1201,8 +1265,8 @@
       <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
@@ -1255,10 +1319,10 @@
       <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
@@ -1276,10 +1340,10 @@
       <c r="F19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
@@ -1297,8 +1361,8 @@
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
@@ -1316,10 +1380,10 @@
       <c r="F21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
@@ -1337,28 +1401,28 @@
       <c r="F22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1372,6 +1436,16 @@
     <mergeCell ref="H21:I22"/>
     <mergeCell ref="H23:I24"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:F22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Elétrico"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Renault">
+      <formula>NOT(ISERROR(SEARCH("Renault",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1563,10 +1637,10 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
